--- a/Mo.xlsx
+++ b/Mo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -22,79 +22,52 @@
     <t>DAY 1</t>
   </si>
   <si>
-    <t>n</t>
+    <t>DB Press</t>
   </si>
   <si>
     <t>3x8</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>3x6</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>4x8</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>Lateral Raises</t>
+  </si>
+  <si>
+    <t>3x10</t>
+  </si>
+  <si>
+    <t>Close Grip Bench</t>
+  </si>
+  <si>
+    <t>Tricep Kickbacks</t>
   </si>
   <si>
     <t>4x10</t>
   </si>
   <si>
-    <t>e</t>
+    <t>Overhead Cable Extensions</t>
+  </si>
+  <si>
+    <t>3x12</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
+  </si>
+  <si>
+    <t>Landmine Press</t>
+  </si>
+  <si>
+    <t>4x6</t>
+  </si>
+  <si>
+    <t>Incline Press Machine</t>
+  </si>
+  <si>
+    <t>Rope Pushdowns</t>
   </si>
   <si>
     <t>4x12</t>
   </si>
   <si>
-    <t>DAY 2</t>
-  </si>
-  <si>
-    <t>4x6</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>3x10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DAY 3</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>3x12</t>
-  </si>
-  <si>
-    <t>DAY 4</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>DAY 5</t>
-  </si>
-  <si>
-    <t>DAY 6</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>Dips</t>
   </si>
 </sst>
 </file>
@@ -466,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,53 +543,53 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,255 +599,31 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="13">
     <mergeCell ref="A1:S3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:C7"/>
@@ -888,30 +637,6 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
